--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,57 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>chaos</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -103,166 +79,157 @@
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -620,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,10 +659,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -739,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -781,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -789,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.875</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8181818181818182</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.96875</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9583333333333334</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7077922077922078</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7058823529411765</v>
+        <v>0.28</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,31 +1074,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>425</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="M11">
+        <v>19</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>3</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L11">
-        <v>8</v>
-      </c>
-      <c r="M11">
-        <v>8</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5833333333333334</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1285,651 +1252,459 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.78125</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L16">
+        <v>44</v>
+      </c>
+      <c r="M16">
+        <v>44</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="L19">
+        <v>89</v>
+      </c>
+      <c r="M19">
+        <v>89</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="L22">
+        <v>74</v>
+      </c>
+      <c r="M22">
+        <v>74</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.69375</v>
+      </c>
+      <c r="L23">
+        <v>111</v>
+      </c>
+      <c r="M23">
+        <v>111</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L24">
+        <v>35</v>
+      </c>
+      <c r="M24">
+        <v>35</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L25">
+        <v>19</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L27">
+        <v>59</v>
+      </c>
+      <c r="M27">
+        <v>59</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L28">
+        <v>39</v>
+      </c>
+      <c r="M28">
+        <v>39</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.6</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29">
+        <v>30</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15">
-        <v>0.875</v>
-      </c>
-      <c r="L15">
-        <v>14</v>
-      </c>
-      <c r="M15">
-        <v>14</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16">
-        <v>0.875</v>
-      </c>
-      <c r="L16">
-        <v>7</v>
-      </c>
-      <c r="M16">
-        <v>7</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>18</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L17">
-        <v>44</v>
-      </c>
-      <c r="M17">
-        <v>44</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3090128755364807</v>
-      </c>
-      <c r="C18">
-        <v>72</v>
-      </c>
-      <c r="D18">
-        <v>72</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>161</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L18">
-        <v>43</v>
-      </c>
-      <c r="M18">
-        <v>43</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L19">
-        <v>45</v>
-      </c>
-      <c r="M19">
-        <v>45</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C20">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>65</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.15</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>68</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L21">
-        <v>21</v>
-      </c>
-      <c r="M21">
-        <v>21</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.1</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>99</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K24">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L24">
-        <v>30</v>
-      </c>
-      <c r="M24">
-        <v>30</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L25">
-        <v>10</v>
-      </c>
-      <c r="M25">
-        <v>10</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L26">
-        <v>43</v>
-      </c>
-      <c r="M26">
-        <v>43</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="K32">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L32">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L27">
-        <v>19</v>
-      </c>
-      <c r="M27">
-        <v>19</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L28">
-        <v>21</v>
-      </c>
-      <c r="M28">
-        <v>21</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29">
-        <v>0.7</v>
-      </c>
-      <c r="L29">
-        <v>7</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30">
-        <v>0.7</v>
-      </c>
-      <c r="L30">
-        <v>7</v>
-      </c>
-      <c r="M30">
-        <v>7</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31">
-        <v>0.68</v>
-      </c>
-      <c r="L31">
-        <v>17</v>
-      </c>
-      <c r="M31">
-        <v>17</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L32">
-        <v>49</v>
-      </c>
       <c r="M32">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1941,47 +1716,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L33">
+        <v>18</v>
+      </c>
+      <c r="M33">
+        <v>18</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>16</v>
-      </c>
-      <c r="M33">
-        <v>16</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>8</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.6666666666666666</v>
+        <v>0.525</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1993,21 +1768,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.6470588235294118</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2019,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.6060606060606061</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2045,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.4441176470588235</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2071,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.5882352941176471</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2097,21 +1872,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2123,21 +1898,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.4</v>
       </c>
       <c r="L40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2149,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.5666666666666667</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2175,21 +1950,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.5305164319248826</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L42">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2201,21 +1976,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.5138888888888888</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L43">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2227,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.4736842105263158</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L44">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2253,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.4642857142857143</v>
+        <v>0.328125</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2279,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.4545454545454545</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L46">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2305,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.4496124031007752</v>
+        <v>0.3096234309623431</v>
       </c>
       <c r="L47">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="M47">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2331,21 +2106,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>71</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.4</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2357,21 +2132,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.4</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L49">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2383,21 +2158,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.3695652173913043</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2409,21 +2184,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>58</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.35</v>
+        <v>0.02125279642058166</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2435,137 +2210,59 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>13</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K52">
-        <v>0.32</v>
+        <v>0.009341429238673517</v>
       </c>
       <c r="L52">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K53">
-        <v>0.2368421052631579</v>
+        <v>0.006761107533805538</v>
       </c>
       <c r="L53">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K54">
-        <v>0.21875</v>
-      </c>
-      <c r="L54">
-        <v>7</v>
-      </c>
-      <c r="M54">
-        <v>7</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="L55">
-        <v>7</v>
-      </c>
-      <c r="M55">
-        <v>7</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K56">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="L56">
-        <v>10</v>
-      </c>
-      <c r="M56">
-        <v>10</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>400</v>
+        <v>3085</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,12 +55,15 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -79,76 +82,85 @@
     <t>negative</t>
   </si>
   <si>
-    <t>beauty</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
@@ -157,76 +169,58 @@
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>hand</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -587,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -706,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -756,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0.9444444444444444</v>
@@ -827,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0.9393939393939394</v>
@@ -877,16 +871,16 @@
         <v>118</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9130434782608695</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5862068965517241</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,16 +971,16 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8947368421052632</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1006,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.28</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L10">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1763565891472868</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="C11">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>425</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8636363636363636</v>
+        <v>0.875</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1693121693121693</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>157</v>
+        <v>430</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8518518518518519</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1208053691275168</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.05952380952380952</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7826086956521739</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,47 +1242,71 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>236</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L15">
+        <v>22</v>
+      </c>
+      <c r="M15">
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15">
-        <v>0.78125</v>
-      </c>
-      <c r="L15">
-        <v>100</v>
-      </c>
-      <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,47 +1318,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7890625</v>
       </c>
       <c r="L17">
+        <v>101</v>
+      </c>
+      <c r="M17">
+        <v>101</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>27</v>
-      </c>
-      <c r="M17">
-        <v>27</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1357,16 +1375,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.7416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1378,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.704225352112676</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1404,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1430,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6981132075471698</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L22">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="M22">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1461,16 +1479,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.69375</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L23">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M23">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1482,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6862745098039216</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1508,21 +1526,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1534,21 +1552,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1560,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.6276595744680851</v>
+        <v>0.64375</v>
       </c>
       <c r="L27">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="M27">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1586,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.6190476190476191</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1612,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1638,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5833333333333334</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1664,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.5531914893617021</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1690,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5357142857142857</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1716,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5294117647058824</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1742,21 +1760,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.525</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1768,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.5143603133159269</v>
+        <v>0.5326370757180157</v>
       </c>
       <c r="L35">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M35">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1794,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4888888888888889</v>
+        <v>0.475</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1820,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4441176470588235</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L37">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M37">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1846,21 +1864,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.4271186440677966</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L38">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1872,21 +1890,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>169</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.4269662921348314</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1898,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>51</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.4</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1924,15 +1942,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.3939393939393939</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L41">
         <v>13</v>
@@ -1950,21 +1968,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.3846153846153846</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1976,21 +1994,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.3424657534246575</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2002,21 +2020,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.3333333333333333</v>
+        <v>0.3179916317991632</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2028,21 +2046,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>52</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.328125</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2054,21 +2072,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.3255813953488372</v>
+        <v>0.296875</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2080,21 +2098,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.3096234309623431</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L47">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2106,21 +2124,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>165</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.2571428571428571</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2132,21 +2150,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.1944444444444444</v>
+        <v>0.0145413870246085</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2158,111 +2176,33 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>58</v>
+        <v>881</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.03349282296650718</v>
+        <v>0.0051513200257566</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K51">
-        <v>0.02125279642058166</v>
-      </c>
-      <c r="L51">
-        <v>19</v>
-      </c>
-      <c r="M51">
-        <v>19</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K52">
-        <v>0.009341429238673517</v>
-      </c>
-      <c r="L52">
-        <v>20</v>
-      </c>
-      <c r="M52">
-        <v>22</v>
-      </c>
-      <c r="N52">
-        <v>0.91</v>
-      </c>
-      <c r="O52">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K53">
-        <v>0.006761107533805538</v>
-      </c>
-      <c r="L53">
-        <v>21</v>
-      </c>
-      <c r="M53">
-        <v>22</v>
-      </c>
-      <c r="N53">
-        <v>0.95</v>
-      </c>
-      <c r="O53">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>3085</v>
+        <v>3090</v>
       </c>
     </row>
   </sheetData>
